--- a/public/plantillas/Alumnos_Postgrado_Plantilla_Carga_Datos.xlsx
+++ b/public/plantillas/Alumnos_Postgrado_Plantilla_Carga_Datos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="198">
   <si>
     <t>N°</t>
   </si>
@@ -474,12 +474,6 @@
 4: Divorsiado (a)</t>
   </si>
   <si>
-    <t>Indicador si el Alumno sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Discapacidad del Alumno en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
   </si>
   <si>
@@ -487,12 +481,6 @@
   </si>
   <si>
     <t>Meztizo</t>
-  </si>
-  <si>
-    <t>Indicador si el Alumno cuenta con una Escala de Pago. Valores:
-1: Si
-2: No
-Vacío: No</t>
   </si>
   <si>
     <t>Escala de Pago del Alumno en formato texto, debe completarse solo si marcó Si a ¿Cuenta con escala de Pago? (Valor 1)</t>
@@ -678,12 +666,27 @@
     <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
 El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AB, Fila n</t>
   </si>
+  <si>
+    <t>Indicador si el Alumno sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el Alumno cuenta con una Escala de Pago. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Nota: Se debe de llenar la Hoja1 del Excel con las siguientes instrucciones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -776,6 +779,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -875,7 +885,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,6 +961,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1262,7 +1273,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,10 +1314,10 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
         <v>171</v>
-      </c>
-      <c r="D1" t="s">
-        <v>173</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -1357,7 +1368,7 @@
         <v>129</v>
       </c>
       <c r="U1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="V1" t="s">
         <v>28</v>
@@ -1395,10 +1406,10 @@
         <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
@@ -1449,7 +1460,7 @@
         <v>121</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>10</v>
@@ -1490,7 +1501,7 @@
   <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1518,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -1518,6 +1529,11 @@
       <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>36</v>
@@ -1614,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>50</v>
@@ -1626,7 +1642,7 @@
         <v>77</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>72</v>
@@ -1635,7 +1651,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="93" x14ac:dyDescent="0.35">
@@ -1643,10 +1659,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>50</v>
@@ -1658,13 +1674,13 @@
         <v>68</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1693,7 +1709,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1722,7 +1738,7 @@
         <v>59</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1751,7 +1767,7 @@
         <v>60</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1780,7 +1796,7 @@
         <v>61</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1836,7 +1852,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1865,7 +1881,7 @@
         <v>67</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1894,7 +1910,7 @@
         <v>70</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1923,7 +1939,7 @@
         <v>72</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1934,7 +1950,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>54</v>
@@ -1952,7 +1968,7 @@
         <v>74</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1963,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>86</v>
@@ -1981,7 +1997,7 @@
         <v>76</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1992,7 +2008,7 @@
         <v>127</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>50</v>
@@ -2004,13 +2020,13 @@
         <v>68</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>79</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="25" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2021,7 +2037,7 @@
         <v>117</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>50</v>
@@ -2039,7 +2055,7 @@
         <v>82</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2050,10 +2066,10 @@
         <v>119</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>65</v>
@@ -2062,13 +2078,13 @@
         <v>68</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>84</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2079,7 +2095,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>50</v>
@@ -2088,7 +2104,7 @@
         <v>89</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G26" s="19">
         <v>15</v>
@@ -2097,7 +2113,7 @@
         <v>85</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2108,7 +2124,7 @@
         <v>121</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>50</v>
@@ -2117,7 +2133,7 @@
         <v>89</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G27" s="19">
         <v>16</v>
@@ -2126,7 +2142,7 @@
         <v>88</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="121.5" x14ac:dyDescent="0.35">
@@ -2134,10 +2150,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>50</v>
@@ -2146,7 +2162,7 @@
         <v>47</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G28" s="17">
         <v>4</v>
@@ -2155,7 +2171,7 @@
         <v>90</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2184,7 +2200,7 @@
         <v>93</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2213,7 +2229,7 @@
         <v>96</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2242,7 +2258,7 @@
         <v>99</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2271,7 +2287,7 @@
         <v>102</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2282,7 +2298,7 @@
         <v>123</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>50</v>
@@ -2291,16 +2307,16 @@
         <v>107</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>103</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2311,7 +2327,7 @@
         <v>126</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>50</v>
@@ -2329,7 +2345,7 @@
         <v>104</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2340,7 +2356,7 @@
         <v>124</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>50</v>
@@ -2358,7 +2374,7 @@
         <v>106</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2369,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>46</v>
@@ -2421,6 +2437,6 @@
     <hyperlink ref="G33" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>